--- a/Результаты/WebTours Профиль нагрузки_v1.4 (Новая статистика).xlsx
+++ b/Результаты/WebTours Профиль нагрузки_v1.4 (Новая статистика).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenijsvetasev/Desktop/IBS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F6587-FAE1-D541-9777-2C207C413F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C0A55-676E-F349-9C20-3947BBFA47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="108">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -524,58 +524,70 @@
     <t>1 час</t>
   </si>
   <si>
-    <t>Поиск максимума 4 ступень</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
     <t>5 ступень не соответствует профилю</t>
   </si>
   <si>
-    <t>725</t>
-  </si>
-  <si>
-    <t>1 255</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>1 619</t>
-  </si>
-  <si>
-    <t>2 832</t>
-  </si>
-  <si>
-    <t>2 447</t>
-  </si>
-  <si>
-    <t>1 356</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>1 256</t>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Поиск максимума 2 ступень</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>565</t>
   </si>
 </sst>
 </file>
@@ -585,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +829,11 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1331,7 +1348,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1426,12 +1443,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2194,13 +2212,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A73EA1-9683-764A-B533-D46D1B03E170}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="B33" zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
@@ -2217,7 +2236,7 @@
     <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +2376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
@@ -2430,7 +2449,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2522,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
@@ -2576,7 +2595,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
@@ -2649,7 +2668,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="16" thickBot="1">
       <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
@@ -2719,7 +2738,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +2776,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="36" t="s">
         <v>6</v>
       </c>
@@ -2798,7 +2817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="36" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +2861,7 @@
         <v>65.418000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="36" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +2905,7 @@
         <v>44.923999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="16" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>6</v>
       </c>
@@ -2930,7 +2949,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="36" t="s">
         <v>45</v>
       </c>
@@ -2972,7 +2991,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="36" t="s">
         <v>45</v>
       </c>
@@ -3016,7 +3035,7 @@
         <v>34.250999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="36" t="s">
         <v>45</v>
       </c>
@@ -3047,7 +3066,7 @@
         <v>97.297297297297305</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="36" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16" thickBot="1">
       <c r="A17" s="36" t="s">
         <v>45</v>
       </c>
@@ -3112,7 +3131,7 @@
         <v>97.297297297297305</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" thickBot="1">
       <c r="A18" s="36" t="s">
         <v>51</v>
       </c>
@@ -3143,7 +3162,7 @@
         <v>37.113402061855673</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16" thickBot="1">
       <c r="A19" s="36" t="s">
         <v>51</v>
       </c>
@@ -3174,7 +3193,7 @@
         <v>37.113402061855673</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>51</v>
       </c>
@@ -3205,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" thickBot="1">
       <c r="A21" s="36" t="s">
         <v>51</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>37.113402061855673</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
         <v>50</v>
       </c>
@@ -3267,7 +3286,7 @@
         <v>107.46268656716418</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
         <v>50</v>
       </c>
@@ -3298,7 +3317,7 @@
         <v>107.46268656716418</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="36" t="s">
         <v>50</v>
       </c>
@@ -3329,7 +3348,7 @@
         <v>107.46268656716418</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
         <v>50</v>
       </c>
@@ -3360,7 +3379,7 @@
         <v>107.46268656716418</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>50</v>
       </c>
@@ -3391,7 +3410,7 @@
         <v>107.46268656716418</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
         <v>7</v>
       </c>
@@ -3422,7 +3441,7 @@
         <v>42.352941176470594</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="36" t="s">
         <v>7</v>
       </c>
@@ -3453,7 +3472,7 @@
         <v>42.352941176470594</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="36" t="s">
         <v>7</v>
       </c>
@@ -3484,14 +3503,14 @@
         <v>42.352941176470594</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16" thickBot="1">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="D30" s="19"/>
       <c r="F30" s="16"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="120">
       <c r="A33" s="32" t="s">
         <v>23</v>
       </c>
@@ -3518,7 +3537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="40">
       <c r="A34" s="32" t="s">
         <v>46</v>
       </c>
@@ -3552,7 +3571,7 @@
         <v>3.1657355679702071E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="19">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3605,7 @@
         <v>2.314814814814814E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="38">
       <c r="A36" s="33" t="s">
         <v>8</v>
       </c>
@@ -3620,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="38">
       <c r="A37" s="33" t="s">
         <v>9</v>
       </c>
@@ -3654,7 +3673,7 @@
         <v>4.2553191489361653E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="19">
       <c r="A38" s="33" t="s">
         <v>1</v>
       </c>
@@ -3688,7 +3707,7 @@
         <v>-5.7471264367816577E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="19">
       <c r="A39" s="33" t="s">
         <v>2</v>
       </c>
@@ -3722,7 +3741,7 @@
         <v>3.7800687285223344E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="38">
       <c r="A40" s="33" t="s">
         <v>10</v>
       </c>
@@ -3756,7 +3775,7 @@
         <v>2.6666666666666616E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="19">
       <c r="A41" s="33" t="s">
         <v>3</v>
       </c>
@@ -3790,7 +3809,7 @@
         <v>-3.4920634920635019E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="38">
       <c r="A42" s="33" t="s">
         <v>48</v>
       </c>
@@ -3824,7 +3843,7 @@
         <v>-1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="38">
       <c r="A43" s="33" t="s">
         <v>47</v>
       </c>
@@ -3858,7 +3877,7 @@
         <v>-1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="57">
       <c r="A44" s="33" t="s">
         <v>49</v>
       </c>
@@ -3892,7 +3911,7 @@
         <v>-1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="19">
       <c r="A45" s="35" t="s">
         <v>4</v>
       </c>
@@ -3926,17 +3945,17 @@
         <v>1.3826606875934178E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -3949,13 +3968,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D48B1FB-7751-441D-9516-C0058F4407BB}">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="C9:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="111" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="3" max="4" width="9.1640625" hidden="1" customWidth="1"/>
@@ -3974,16 +3994,16 @@
     <col min="20" max="20" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:26" x14ac:dyDescent="0.2">
-      <c r="E9" s="50" t="s">
+    <row r="9" spans="5:26">
+      <c r="E9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="11" spans="5:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="11" spans="5:26" ht="30">
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4006,7 +4026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:26" ht="16">
       <c r="E12" s="9" t="s">
         <v>46</v>
       </c>
@@ -4035,7 +4055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:26" ht="16">
       <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +4091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:26" ht="16">
       <c r="E14" s="9" t="s">
         <v>8</v>
       </c>
@@ -4107,7 +4127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:26" ht="16">
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
@@ -4143,7 +4163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:26" ht="16">
       <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +4199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:26" ht="16">
       <c r="E17" s="9" t="s">
         <v>2</v>
       </c>
@@ -4215,7 +4235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:26" ht="16">
       <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
@@ -4251,7 +4271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:26" ht="16">
       <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
@@ -4287,7 +4307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:26" ht="16">
       <c r="E20" s="9" t="s">
         <v>48</v>
       </c>
@@ -4323,7 +4343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:26" ht="16">
       <c r="E21" s="9" t="s">
         <v>47</v>
       </c>
@@ -4359,7 +4379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:26" ht="16">
       <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
@@ -4395,7 +4415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:26" ht="16">
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
@@ -4419,39 +4439,39 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:26" ht="16">
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
     </row>
-    <row r="25" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:26" ht="16">
       <c r="E25" s="43"/>
     </row>
-    <row r="26" spans="5:26" x14ac:dyDescent="0.2">
-      <c r="E26" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-    </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:26">
+      <c r="E26" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+    </row>
+    <row r="27" spans="5:26">
       <c r="L27" s="49" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="49"/>
       <c r="N27" s="48" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O27" s="49">
         <f>N27*3</f>
-        <v>702</v>
-      </c>
-    </row>
-    <row r="28" spans="5:26" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="5:26">
       <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
@@ -4472,14 +4492,14 @@
       </c>
       <c r="M28" s="49"/>
       <c r="N28" s="48" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O28" s="49">
         <f t="shared" ref="O28:O37" si="2">N28*3</f>
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="29" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="29" spans="5:26" ht="16">
       <c r="E29" s="9" t="s">
         <v>46</v>
       </c>
@@ -4487,29 +4507,29 @@
         <v>54</v>
       </c>
       <c r="G29" s="7">
-        <f>G12*4</f>
-        <v>2080</v>
+        <f>G12*2</f>
+        <v>1040</v>
       </c>
       <c r="H29" s="49">
-        <v>2139</v>
+        <v>1065</v>
       </c>
       <c r="I29" s="8">
         <f>1-G29/H29</f>
-        <v>2.7582982702197278E-2</v>
+        <v>2.3474178403755874E-2</v>
       </c>
       <c r="L29" s="49" t="s">
         <v>74</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="48" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O29" s="49">
         <f t="shared" si="2"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="5:26" ht="16">
       <c r="E30" s="9" t="s">
         <v>0</v>
       </c>
@@ -4517,29 +4537,29 @@
         <v>55</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" ref="G30:G39" si="3">G13*4</f>
-        <v>1688</v>
+        <f t="shared" ref="G30:G39" si="3">G13*2</f>
+        <v>844</v>
       </c>
       <c r="H30" s="6">
-        <v>1761</v>
+        <v>873</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ref="I30:I39" si="4">1-G30/H30</f>
-        <v>4.1453719477569595E-2</v>
+        <v>3.3218785796105377E-2</v>
       </c>
       <c r="L30" s="49" t="s">
         <v>60</v>
       </c>
       <c r="M30" s="49"/>
       <c r="N30" s="48" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="O30" s="49">
         <f t="shared" si="2"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="5:26" ht="16">
       <c r="E31" s="9" t="s">
         <v>8</v>
       </c>
@@ -4548,28 +4568,28 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="3"/>
-        <v>1128</v>
+        <v>564</v>
       </c>
       <c r="H31" s="6">
-        <v>1128</v>
+        <v>567</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.2910052910053462E-3</v>
       </c>
       <c r="L31" s="49" t="s">
         <v>77</v>
       </c>
       <c r="M31" s="49"/>
       <c r="N31" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="49">
         <f t="shared" si="2"/>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="32" spans="5:26" ht="16" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="32" spans="5:26" ht="16">
       <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
@@ -4578,28 +4598,28 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="3"/>
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="H32" s="6">
-        <v>1034</v>
+        <v>564</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="4"/>
-        <v>-4.4487427466150864E-2</v>
+        <v>4.2553191489361653E-2</v>
       </c>
       <c r="L32" s="49" t="s">
         <v>54</v>
       </c>
       <c r="M32" s="49"/>
       <c r="N32" s="48" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O32" s="49">
         <f t="shared" si="2"/>
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="33" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="16">
       <c r="E33" s="9" t="s">
         <v>1</v>
       </c>
@@ -4608,28 +4628,28 @@
       </c>
       <c r="G33" s="7">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="H33" s="49">
-        <v>702</v>
+        <v>348</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="4"/>
-        <v>2.8490028490028019E-3</v>
+        <v>-5.7471264367816577E-3</v>
       </c>
       <c r="L33" s="49" t="s">
         <v>55</v>
       </c>
       <c r="M33" s="49"/>
       <c r="N33" s="48" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O33" s="49">
         <f t="shared" si="2"/>
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="34" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" ht="16">
       <c r="E34" s="9" t="s">
         <v>2</v>
       </c>
@@ -4638,28 +4658,28 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="3"/>
-        <v>1120</v>
+        <v>560</v>
       </c>
       <c r="H34" s="6">
-        <v>1170</v>
+        <v>582</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="4"/>
-        <v>4.2735042735042694E-2</v>
+        <v>3.7800687285223344E-2</v>
       </c>
       <c r="L34" s="49" t="s">
         <v>61</v>
       </c>
       <c r="M34" s="49"/>
       <c r="N34" s="48" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O34" s="49">
         <f t="shared" si="2"/>
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" ht="16">
       <c r="E35" s="9" t="s">
         <v>10</v>
       </c>
@@ -4668,28 +4688,28 @@
       </c>
       <c r="G35" s="7">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="H35" s="6">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="4"/>
-        <v>-4.6594982078853153E-2</v>
+        <v>2.6666666666666616E-2</v>
       </c>
       <c r="L35" s="49" t="s">
         <v>64</v>
       </c>
       <c r="M35" s="49"/>
       <c r="N35" s="48" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="O35" s="49">
         <f t="shared" si="2"/>
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" ht="16">
       <c r="E36" s="9" t="s">
         <v>3</v>
       </c>
@@ -4698,28 +4718,28 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="3"/>
-        <v>1304</v>
+        <v>652</v>
       </c>
       <c r="H36" s="40">
-        <v>1242</v>
+        <v>624</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="4"/>
-        <v>-4.9919484702093397E-2</v>
+        <v>-4.4871794871794934E-2</v>
       </c>
       <c r="L36" s="49" t="s">
         <v>56</v>
       </c>
       <c r="M36" s="49"/>
       <c r="N36" s="48" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O36" s="49">
         <f t="shared" si="2"/>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="37" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" ht="16">
       <c r="E37" s="9" t="s">
         <v>48</v>
       </c>
@@ -4728,10 +4748,10 @@
       </c>
       <c r="G37" s="7">
         <f t="shared" si="3"/>
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="H37" s="40">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="4"/>
@@ -4742,14 +4762,14 @@
       </c>
       <c r="M37" s="49"/>
       <c r="N37" s="48" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="O37" s="49">
         <f t="shared" si="2"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" ht="16">
       <c r="E38" s="9" t="s">
         <v>47</v>
       </c>
@@ -4758,17 +4778,17 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="3"/>
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="H38" s="40">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="4"/>
         <v>-1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:16" ht="16">
       <c r="E39" s="9" t="s">
         <v>49</v>
       </c>
@@ -4777,31 +4797,31 @@
       </c>
       <c r="G39" s="7">
         <f t="shared" si="3"/>
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="H39" s="40">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5839793281654533E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="E41" s="51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E45" s="50" t="s">
+        <v>-1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" ht="16">
+      <c r="E41" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16">
+      <c r="E45" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-    </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="47" spans="5:16">
       <c r="E47" s="5" t="s">
         <v>11</v>
       </c>
@@ -4821,17 +4841,13 @@
         <v>70</v>
       </c>
       <c r="M47" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="N47" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="O47" s="49">
-        <f>N47*3</f>
-        <v>702</v>
-      </c>
-    </row>
-    <row r="48" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="48"/>
+    </row>
+    <row r="48" spans="5:16" ht="16">
       <c r="E48" s="9" t="s">
         <v>46</v>
       </c>
@@ -4839,29 +4855,27 @@
         <v>54</v>
       </c>
       <c r="G48" s="7">
-        <f>G12*4*0.9</f>
-        <v>1872</v>
-      </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="8" t="e">
+        <f>G12*1.8</f>
+        <v>936</v>
+      </c>
+      <c r="H48" s="52">
+        <v>955</v>
+      </c>
+      <c r="I48" s="8">
         <f>1-G48/H48</f>
-        <v>#DIV/0!</v>
+        <v>1.9895287958115238E-2</v>
       </c>
       <c r="L48" s="49" t="s">
         <v>72</v>
       </c>
       <c r="M48" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="N48" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="O48" s="49">
-        <f t="shared" ref="O48:O57" si="5">N48*3</f>
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="49" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="N48" s="48"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="48"/>
+    </row>
+    <row r="49" spans="5:16" ht="16">
       <c r="E49" s="9" t="s">
         <v>0</v>
       </c>
@@ -4869,29 +4883,27 @@
         <v>55</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" ref="G49:G58" si="6">G13*4</f>
-        <v>1688</v>
-      </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="8" t="e">
-        <f t="shared" ref="I49:I58" si="7">1-G49/H49</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="G49:G58" si="5">G13*1.8</f>
+        <v>759.6</v>
+      </c>
+      <c r="H49" s="49">
+        <v>760</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" ref="I49:I58" si="6">1-G49/H49</f>
+        <v>5.2631578947370805E-4</v>
       </c>
       <c r="L49" s="49" t="s">
         <v>74</v>
       </c>
       <c r="M49" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="N49" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="O49" s="49">
-        <f t="shared" si="5"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="N49" s="48"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="48"/>
+    </row>
+    <row r="50" spans="5:16" ht="16">
       <c r="E50" s="9" t="s">
         <v>8</v>
       </c>
@@ -4899,29 +4911,27 @@
         <v>56</v>
       </c>
       <c r="G50" s="7">
+        <f t="shared" si="5"/>
+        <v>507.6</v>
+      </c>
+      <c r="H50" s="49">
+        <v>508</v>
+      </c>
+      <c r="I50" s="8">
         <f t="shared" si="6"/>
-        <v>1128</v>
-      </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>7.8740157480305939E-4</v>
       </c>
       <c r="L50" s="49" t="s">
         <v>60</v>
       </c>
       <c r="M50" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N50" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="O50" s="49">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="N50" s="48"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="48"/>
+    </row>
+    <row r="51" spans="5:16" ht="16">
       <c r="E51" s="9" t="s">
         <v>9</v>
       </c>
@@ -4929,29 +4939,27 @@
         <v>57</v>
       </c>
       <c r="G51" s="7">
+        <f t="shared" si="5"/>
+        <v>486</v>
+      </c>
+      <c r="H51" s="49">
+        <v>566</v>
+      </c>
+      <c r="I51" s="4">
         <f t="shared" si="6"/>
-        <v>1080</v>
-      </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.14134275618374559</v>
       </c>
       <c r="L51" s="49" t="s">
         <v>77</v>
       </c>
       <c r="M51" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="N51" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="O51" s="49">
-        <f t="shared" si="5"/>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="52" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="N51" s="48"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="48"/>
+    </row>
+    <row r="52" spans="5:16" ht="16">
       <c r="E52" s="9" t="s">
         <v>1</v>
       </c>
@@ -4959,29 +4967,27 @@
         <v>58</v>
       </c>
       <c r="G52" s="7">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="H52" s="49">
+        <v>350</v>
+      </c>
+      <c r="I52" s="8">
         <f t="shared" si="6"/>
-        <v>700</v>
-      </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="L52" s="49" t="s">
         <v>54</v>
       </c>
       <c r="M52" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="N52" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="O52" s="49">
-        <f t="shared" si="5"/>
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="53" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="N52" s="48"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="48"/>
+    </row>
+    <row r="53" spans="5:16" ht="16">
       <c r="E53" s="9" t="s">
         <v>2</v>
       </c>
@@ -4989,29 +4995,27 @@
         <v>59</v>
       </c>
       <c r="G53" s="7">
+        <f t="shared" si="5"/>
+        <v>504</v>
+      </c>
+      <c r="H53" s="49">
+        <v>508</v>
+      </c>
+      <c r="I53" s="8">
         <f t="shared" si="6"/>
-        <v>1120</v>
-      </c>
-      <c r="H53" s="49"/>
-      <c r="I53" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>7.8740157480314821E-3</v>
       </c>
       <c r="L53" s="49" t="s">
         <v>55</v>
       </c>
       <c r="M53" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="N53" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="O53" s="49">
-        <f t="shared" si="5"/>
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="54" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="N53" s="48"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="48"/>
+    </row>
+    <row r="54" spans="5:16" ht="16">
       <c r="E54" s="9" t="s">
         <v>10</v>
       </c>
@@ -5019,31 +5023,27 @@
         <v>60</v>
       </c>
       <c r="G54" s="7">
+        <f t="shared" si="5"/>
+        <v>131.4</v>
+      </c>
+      <c r="H54" s="49">
+        <v>73</v>
+      </c>
+      <c r="I54" s="8">
         <f t="shared" si="6"/>
-        <v>292</v>
-      </c>
-      <c r="H54" s="49">
-        <v>182</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="7"/>
-        <v>-0.60439560439560447</v>
+        <v>-0.8</v>
       </c>
       <c r="L54" s="49" t="s">
         <v>61</v>
       </c>
       <c r="M54" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="N54" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="O54" s="49">
-        <f t="shared" si="5"/>
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="55" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="N54" s="48"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="48"/>
+    </row>
+    <row r="55" spans="5:16" ht="16">
       <c r="E55" s="9" t="s">
         <v>3</v>
       </c>
@@ -5051,31 +5051,27 @@
         <v>61</v>
       </c>
       <c r="G55" s="7">
+        <f t="shared" si="5"/>
+        <v>586.80000000000007</v>
+      </c>
+      <c r="H55" s="49">
+        <v>517</v>
+      </c>
+      <c r="I55" s="8">
         <f t="shared" si="6"/>
-        <v>1304</v>
-      </c>
-      <c r="H55" s="49">
-        <v>1356</v>
-      </c>
-      <c r="I55" s="8">
-        <f t="shared" si="7"/>
-        <v>3.8348082595870192E-2</v>
+        <v>-0.13500967117988405</v>
       </c>
       <c r="L55" s="49" t="s">
         <v>64</v>
       </c>
       <c r="M55" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="N55" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="O55" s="49">
-        <f t="shared" si="5"/>
-        <v>387</v>
-      </c>
-    </row>
-    <row r="56" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="N55" s="48"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="48"/>
+    </row>
+    <row r="56" spans="5:16" ht="16">
       <c r="E56" s="9" t="s">
         <v>48</v>
       </c>
@@ -5083,31 +5079,27 @@
         <v>66</v>
       </c>
       <c r="G56" s="7">
+        <f t="shared" si="5"/>
+        <v>174.6</v>
+      </c>
+      <c r="H56" s="48">
+        <v>192</v>
+      </c>
+      <c r="I56" s="8">
         <f t="shared" si="6"/>
-        <v>388</v>
-      </c>
-      <c r="H56" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I56" s="8">
-        <f t="shared" si="7"/>
-        <v>-2.5839793281654533E-3</v>
+        <v>9.0625000000000067E-2</v>
       </c>
       <c r="L56" s="49" t="s">
         <v>56</v>
       </c>
       <c r="M56" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="N56" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="O56" s="49">
-        <f t="shared" si="5"/>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="57" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="N56" s="48"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="48"/>
+    </row>
+    <row r="57" spans="5:16" ht="16">
       <c r="E57" s="9" t="s">
         <v>47</v>
       </c>
@@ -5115,31 +5107,27 @@
         <v>67</v>
       </c>
       <c r="G57" s="7">
+        <f t="shared" si="5"/>
+        <v>174.6</v>
+      </c>
+      <c r="H57" s="49">
+        <v>191</v>
+      </c>
+      <c r="I57" s="8">
         <f t="shared" si="6"/>
-        <v>388</v>
-      </c>
-      <c r="H57" s="49">
-        <v>381</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="7"/>
-        <v>-1.8372703412073532E-2</v>
+        <v>8.5863874345549762E-2</v>
       </c>
       <c r="L57" s="49" t="s">
         <v>67</v>
       </c>
       <c r="M57" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="N57" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="O57" s="49">
-        <f t="shared" si="5"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="N57" s="48"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="48"/>
+    </row>
+    <row r="58" spans="5:16" ht="16">
       <c r="E58" s="9" t="s">
         <v>49</v>
       </c>
@@ -5147,15 +5135,15 @@
         <v>68</v>
       </c>
       <c r="G58" s="7">
+        <f t="shared" si="5"/>
+        <v>174.6</v>
+      </c>
+      <c r="H58" s="48">
+        <v>192</v>
+      </c>
+      <c r="I58" s="8">
         <f t="shared" si="6"/>
-        <v>388</v>
-      </c>
-      <c r="H58" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="I58" s="8">
-        <f t="shared" si="7"/>
-        <v>-1.8372703412073532E-2</v>
+        <v>9.0625000000000067E-2</v>
       </c>
     </row>
   </sheetData>
